--- a/dataset/Matching_Results_Comparison/阈值设置20%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置20%.xlsx
@@ -495,7 +495,7 @@
         <v>13.7696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.716</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.7422279792746114</v>
+        <v>0.7435233160621761</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
         <v>14.7287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7659</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         <v>4.898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>16.3531</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8504</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7">
@@ -707,7 +707,7 @@
         <v>8.423400000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.438</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -747,11 +747,11 @@
         <v>2.8694</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1492</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -778,21 +778,25 @@
           <t>['入住重症监护室情况', '其他诊断入院病情', '主要诊断入院病情']</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>主要诊断入院病情</t>
+        </is>
+      </c>
       <c r="D9" t="n">
         <v>3.7818</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1967</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -815,7 +819,7 @@
         <v>4.354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2264</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -847,7 +851,7 @@
         <v>4.354</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2264</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -875,11 +879,11 @@
         <v>3.7818</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1967</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -907,7 +911,7 @@
         <v>6.3249</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3289</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -943,7 +947,7 @@
         <v>6.5906</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3427</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -979,7 +983,7 @@
         <v>10.4377</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5427999999999999</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1015,7 +1019,7 @@
         <v>4.4434</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2311</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1047,7 +1051,7 @@
         <v>5.8116</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1083,7 +1087,7 @@
         <v>6.0773</v>
       </c>
       <c r="E18" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1119,7 +1123,7 @@
         <v>9.9244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1155,7 +1159,7 @@
         <v>5.3264</v>
       </c>
       <c r="E20" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1187,7 +1191,7 @@
         <v>5.8116</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1223,7 +1227,7 @@
         <v>6.0773</v>
       </c>
       <c r="E22" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1259,7 +1263,7 @@
         <v>9.9244</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1295,7 +1299,7 @@
         <v>5.3264</v>
       </c>
       <c r="E24" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1327,7 +1331,7 @@
         <v>5.8116</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1363,7 +1367,7 @@
         <v>6.0773</v>
       </c>
       <c r="E26" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1399,7 +1403,7 @@
         <v>9.9244</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1435,7 +1439,7 @@
         <v>5.3264</v>
       </c>
       <c r="E28" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1467,7 +1471,7 @@
         <v>5.8116</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1503,7 +1507,7 @@
         <v>6.0773</v>
       </c>
       <c r="E30" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1539,7 +1543,7 @@
         <v>9.9244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1575,7 +1579,7 @@
         <v>5.3264</v>
       </c>
       <c r="E32" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1607,7 +1611,7 @@
         <v>5.8116</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1643,7 +1647,7 @@
         <v>6.0773</v>
       </c>
       <c r="E34" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1679,7 +1683,7 @@
         <v>9.9244</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1711,7 +1715,7 @@
         <v>5.3264</v>
       </c>
       <c r="E36" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1743,7 +1747,7 @@
         <v>5.8116</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1779,7 +1783,7 @@
         <v>6.0773</v>
       </c>
       <c r="E38" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1815,7 +1819,7 @@
         <v>9.9244</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1847,7 +1851,7 @@
         <v>5.3264</v>
       </c>
       <c r="E40" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1879,7 +1883,7 @@
         <v>5.8116</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1915,7 +1919,7 @@
         <v>6.0773</v>
       </c>
       <c r="E42" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1951,7 +1955,7 @@
         <v>9.9244</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1983,7 +1987,7 @@
         <v>5.3264</v>
       </c>
       <c r="E44" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2015,7 +2019,7 @@
         <v>5.8116</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2051,7 +2055,7 @@
         <v>6.0773</v>
       </c>
       <c r="E46" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2087,7 +2091,7 @@
         <v>9.9244</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2123,7 +2127,7 @@
         <v>5.3264</v>
       </c>
       <c r="E48" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2155,7 +2159,7 @@
         <v>5.8116</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2191,7 +2195,7 @@
         <v>6.0773</v>
       </c>
       <c r="E50" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2227,7 +2231,7 @@
         <v>9.9244</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2263,7 +2267,7 @@
         <v>5.3264</v>
       </c>
       <c r="E52" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2295,7 +2299,7 @@
         <v>5.8116</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2331,7 +2335,7 @@
         <v>6.0773</v>
       </c>
       <c r="E54" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2367,7 +2371,7 @@
         <v>9.9244</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2403,7 +2407,7 @@
         <v>5.3264</v>
       </c>
       <c r="E56" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2435,7 +2439,7 @@
         <v>5.8116</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2471,7 +2475,7 @@
         <v>6.0773</v>
       </c>
       <c r="E58" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2507,7 +2511,7 @@
         <v>9.9244</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2543,7 +2547,7 @@
         <v>5.3264</v>
       </c>
       <c r="E60" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2575,7 +2579,7 @@
         <v>5.8116</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2611,7 +2615,7 @@
         <v>6.0773</v>
       </c>
       <c r="E62" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2647,7 +2651,7 @@
         <v>9.9244</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2683,7 +2687,7 @@
         <v>5.3264</v>
       </c>
       <c r="E64" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2715,7 +2719,7 @@
         <v>5.8116</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2751,7 +2755,7 @@
         <v>6.0773</v>
       </c>
       <c r="E66" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2787,7 +2791,7 @@
         <v>9.9244</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2823,7 +2827,7 @@
         <v>5.3264</v>
       </c>
       <c r="E68" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2855,7 +2859,7 @@
         <v>5.8116</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2891,7 +2895,7 @@
         <v>6.0773</v>
       </c>
       <c r="E70" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2927,7 +2931,7 @@
         <v>9.9244</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2963,7 +2967,7 @@
         <v>5.3264</v>
       </c>
       <c r="E72" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2995,7 +2999,7 @@
         <v>5.8116</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3031,7 +3035,7 @@
         <v>6.0773</v>
       </c>
       <c r="E74" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3067,7 +3071,7 @@
         <v>9.9244</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3103,7 +3107,7 @@
         <v>5.3264</v>
       </c>
       <c r="E76" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3135,7 +3139,7 @@
         <v>5.8116</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3171,7 +3175,7 @@
         <v>6.0773</v>
       </c>
       <c r="E78" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3207,7 +3211,7 @@
         <v>9.9244</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3243,7 +3247,7 @@
         <v>5.3264</v>
       </c>
       <c r="E80" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3275,7 +3279,7 @@
         <v>5.8116</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3311,7 +3315,7 @@
         <v>6.0773</v>
       </c>
       <c r="E82" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3347,7 +3351,7 @@
         <v>9.9244</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3383,7 +3387,7 @@
         <v>5.3264</v>
       </c>
       <c r="E84" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3415,7 +3419,7 @@
         <v>5.8116</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3451,7 +3455,7 @@
         <v>6.0773</v>
       </c>
       <c r="E86" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3487,7 +3491,7 @@
         <v>9.9244</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3523,7 +3527,7 @@
         <v>5.3264</v>
       </c>
       <c r="E88" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3555,7 +3559,7 @@
         <v>5.8116</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3591,7 +3595,7 @@
         <v>6.0773</v>
       </c>
       <c r="E90" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3627,7 +3631,7 @@
         <v>9.9244</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3663,7 +3667,7 @@
         <v>5.3264</v>
       </c>
       <c r="E92" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3695,7 +3699,7 @@
         <v>5.8116</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3731,7 +3735,7 @@
         <v>6.0773</v>
       </c>
       <c r="E94" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3767,7 +3771,7 @@
         <v>9.9244</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3803,7 +3807,7 @@
         <v>5.3264</v>
       </c>
       <c r="E96" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3835,7 +3839,7 @@
         <v>5.8116</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3871,7 +3875,7 @@
         <v>6.0773</v>
       </c>
       <c r="E98" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3907,7 +3911,7 @@
         <v>9.9244</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3943,7 +3947,7 @@
         <v>5.3264</v>
       </c>
       <c r="E100" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3975,7 +3979,7 @@
         <v>5.8116</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4011,7 +4015,7 @@
         <v>6.0773</v>
       </c>
       <c r="E102" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4047,7 +4051,7 @@
         <v>9.9244</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4083,7 +4087,7 @@
         <v>5.3264</v>
       </c>
       <c r="E104" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4115,7 +4119,7 @@
         <v>5.8116</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4151,7 +4155,7 @@
         <v>6.0773</v>
       </c>
       <c r="E106" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4187,7 +4191,7 @@
         <v>9.9244</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4223,7 +4227,7 @@
         <v>5.3264</v>
       </c>
       <c r="E108" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4255,7 +4259,7 @@
         <v>5.8116</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4291,7 +4295,7 @@
         <v>6.0773</v>
       </c>
       <c r="E110" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4327,7 +4331,7 @@
         <v>9.9244</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4359,7 +4363,7 @@
         <v>5.5375</v>
       </c>
       <c r="E112" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4391,7 +4395,7 @@
         <v>5.8116</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4427,7 +4431,7 @@
         <v>6.0773</v>
       </c>
       <c r="E114" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4463,7 +4467,7 @@
         <v>9.9244</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4499,7 +4503,7 @@
         <v>5.3264</v>
       </c>
       <c r="E116" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4531,7 +4535,7 @@
         <v>5.8116</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4567,7 +4571,7 @@
         <v>6.0773</v>
       </c>
       <c r="E118" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4603,7 +4607,7 @@
         <v>9.9244</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4639,7 +4643,7 @@
         <v>5.3264</v>
       </c>
       <c r="E120" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4671,7 +4675,7 @@
         <v>5.8116</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4707,7 +4711,7 @@
         <v>6.0773</v>
       </c>
       <c r="E122" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4743,7 +4747,7 @@
         <v>9.9244</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4779,7 +4783,7 @@
         <v>5.3264</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4811,7 +4815,7 @@
         <v>5.8116</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4847,7 +4851,7 @@
         <v>6.0773</v>
       </c>
       <c r="E126" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4883,7 +4887,7 @@
         <v>9.9244</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4919,7 +4923,7 @@
         <v>5.3264</v>
       </c>
       <c r="E128" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4951,7 +4955,7 @@
         <v>5.8116</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4987,7 +4991,7 @@
         <v>6.0773</v>
       </c>
       <c r="E130" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5023,7 +5027,7 @@
         <v>9.9244</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5059,7 +5063,7 @@
         <v>5.3264</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5091,7 +5095,7 @@
         <v>5.8116</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5127,7 +5131,7 @@
         <v>6.0773</v>
       </c>
       <c r="E134" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5163,7 +5167,7 @@
         <v>9.9244</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5199,7 +5203,7 @@
         <v>5.3264</v>
       </c>
       <c r="E136" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5231,7 +5235,7 @@
         <v>5.8116</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5267,7 +5271,7 @@
         <v>6.0773</v>
       </c>
       <c r="E138" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5303,7 +5307,7 @@
         <v>9.9244</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5339,7 +5343,7 @@
         <v>7.9895</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4155</v>
+        <v>1</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5371,7 +5375,7 @@
         <v>5.8116</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5407,7 +5411,7 @@
         <v>6.0773</v>
       </c>
       <c r="E142" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5443,7 +5447,7 @@
         <v>9.9244</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5479,7 +5483,7 @@
         <v>5.3264</v>
       </c>
       <c r="E144" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5511,7 +5515,7 @@
         <v>5.8116</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -5547,7 +5551,7 @@
         <v>6.0773</v>
       </c>
       <c r="E146" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5583,7 +5587,7 @@
         <v>9.9244</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5619,7 +5623,7 @@
         <v>5.3264</v>
       </c>
       <c r="E148" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5651,7 +5655,7 @@
         <v>5.8116</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5687,7 +5691,7 @@
         <v>6.0773</v>
       </c>
       <c r="E150" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5723,7 +5727,7 @@
         <v>9.9244</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -5759,7 +5763,7 @@
         <v>5.3264</v>
       </c>
       <c r="E152" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5791,7 +5795,7 @@
         <v>5.8116</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5827,7 +5831,7 @@
         <v>6.0773</v>
       </c>
       <c r="E154" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5863,7 +5867,7 @@
         <v>9.9244</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5899,7 +5903,7 @@
         <v>5.3264</v>
       </c>
       <c r="E156" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5931,7 +5935,7 @@
         <v>5.8116</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5967,7 +5971,7 @@
         <v>6.0773</v>
       </c>
       <c r="E158" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6003,7 +6007,7 @@
         <v>9.9244</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6039,7 +6043,7 @@
         <v>5.3264</v>
       </c>
       <c r="E160" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6071,7 +6075,7 @@
         <v>5.8116</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6107,7 +6111,7 @@
         <v>6.0773</v>
       </c>
       <c r="E162" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -6143,7 +6147,7 @@
         <v>9.9244</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -6179,7 +6183,7 @@
         <v>5.3264</v>
       </c>
       <c r="E164" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6211,7 +6215,7 @@
         <v>5.8116</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6247,7 +6251,7 @@
         <v>6.0773</v>
       </c>
       <c r="E166" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6283,7 +6287,7 @@
         <v>9.9244</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6319,7 +6323,7 @@
         <v>5.3264</v>
       </c>
       <c r="E168" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6351,7 +6355,7 @@
         <v>5.8116</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6387,7 +6391,7 @@
         <v>6.0773</v>
       </c>
       <c r="E170" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6423,7 +6427,7 @@
         <v>9.9244</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -6459,7 +6463,7 @@
         <v>5.3264</v>
       </c>
       <c r="E172" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6491,7 +6495,7 @@
         <v>5.8116</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3022</v>
+        <v>1</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -6527,7 +6531,7 @@
         <v>6.0773</v>
       </c>
       <c r="E174" t="n">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -6563,7 +6567,7 @@
         <v>9.9244</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5161</v>
+        <v>1</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6599,7 +6603,7 @@
         <v>5.3264</v>
       </c>
       <c r="E176" t="n">
-        <v>0.277</v>
+        <v>1</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6631,7 +6635,7 @@
         <v>4.4543</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2316</v>
+        <v>1</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -6667,7 +6671,7 @@
         <v>6.8561</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3565</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6703,7 +6707,7 @@
         <v>8.423400000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>0.438</v>
+        <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6739,7 +6743,7 @@
         <v>4.4543</v>
       </c>
       <c r="E180" t="n">
-        <v>0.2316</v>
+        <v>1</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -6775,7 +6779,7 @@
         <v>6.8561</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3565</v>
+        <v>1</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6811,7 +6815,7 @@
         <v>8.423400000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>0.438</v>
+        <v>1</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -6847,7 +6851,7 @@
         <v>4.4543</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2316</v>
+        <v>1</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6883,7 +6887,7 @@
         <v>6.8561</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3565</v>
+        <v>1</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6919,7 +6923,7 @@
         <v>8.423400000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>0.438</v>
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6946,21 +6950,25 @@
           <t>['疾病编码', '其他诊断疾病编码', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>疾病编码</t>
+        </is>
+      </c>
       <c r="D186" t="n">
         <v>2.9729</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1546</v>
+        <v>1</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6979,11 +6987,11 @@
         <v>2.4018</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1249</v>
+        <v>1</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -7007,11 +7015,11 @@
         <v>3.4194</v>
       </c>
       <c r="E188" t="n">
-        <v>0.1778</v>
+        <v>1</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -7035,11 +7043,11 @@
         <v>3.4194</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1778</v>
+        <v>1</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -7067,7 +7075,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -7095,7 +7103,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -7123,7 +7131,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -7151,7 +7159,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -7179,7 +7187,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -7207,7 +7215,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -7235,7 +7243,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -7263,7 +7271,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -7287,7 +7295,7 @@
         <v>4.898</v>
       </c>
       <c r="E198" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -7315,7 +7323,7 @@
         <v>4.898</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -7347,7 +7355,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -7375,7 +7383,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -7403,7 +7411,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -7431,7 +7439,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -7459,7 +7467,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -7487,7 +7495,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -7515,7 +7523,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -7543,7 +7551,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -7571,7 +7579,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -7599,7 +7607,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -7627,7 +7635,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -7655,7 +7663,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -7679,11 +7687,11 @@
         <v>3.7818</v>
       </c>
       <c r="E212" t="n">
-        <v>0.1967</v>
+        <v>1</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -7711,7 +7719,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -7739,7 +7747,7 @@
         <v>7.0628</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -7775,7 +7783,7 @@
         <v>6.8673</v>
       </c>
       <c r="E215" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -7811,7 +7819,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -7847,7 +7855,7 @@
         <v>7.5239</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -7879,7 +7887,7 @@
         <v>4.7202</v>
       </c>
       <c r="E218" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -7907,7 +7915,7 @@
         <v>4.7202</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -7939,7 +7947,7 @@
         <v>4.7202</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -7971,7 +7979,7 @@
         <v>4.7202</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -8003,7 +8011,7 @@
         <v>12.6905</v>
       </c>
       <c r="E222" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -8039,7 +8047,7 @@
         <v>7.7203</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -8071,7 +8079,7 @@
         <v>4.7202</v>
       </c>
       <c r="E224" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -8099,7 +8107,7 @@
         <v>4.7202</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -8131,7 +8139,7 @@
         <v>7.0628</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -8167,7 +8175,7 @@
         <v>6.8673</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -8203,7 +8211,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -8239,7 +8247,7 @@
         <v>7.5239</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -8271,7 +8279,7 @@
         <v>4.7202</v>
       </c>
       <c r="E230" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -8299,7 +8307,7 @@
         <v>4.7202</v>
       </c>
       <c r="E231" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -8331,7 +8339,7 @@
         <v>4.7202</v>
       </c>
       <c r="E232" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -8363,7 +8371,7 @@
         <v>4.7202</v>
       </c>
       <c r="E233" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -8395,7 +8403,7 @@
         <v>12.6905</v>
       </c>
       <c r="E234" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -8431,7 +8439,7 @@
         <v>7.7203</v>
       </c>
       <c r="E235" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -8463,7 +8471,7 @@
         <v>4.7202</v>
       </c>
       <c r="E236" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -8491,7 +8499,7 @@
         <v>4.7202</v>
       </c>
       <c r="E237" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -8523,7 +8531,7 @@
         <v>7.0628</v>
       </c>
       <c r="E238" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -8559,7 +8567,7 @@
         <v>6.8673</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -8595,7 +8603,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -8631,7 +8639,7 @@
         <v>7.5239</v>
       </c>
       <c r="E241" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -8663,7 +8671,7 @@
         <v>5.2433</v>
       </c>
       <c r="E242" t="n">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -8695,7 +8703,7 @@
         <v>5.2433</v>
       </c>
       <c r="E243" t="n">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -8727,7 +8735,7 @@
         <v>5.2433</v>
       </c>
       <c r="E244" t="n">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -8759,7 +8767,7 @@
         <v>5.2433</v>
       </c>
       <c r="E245" t="n">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -8791,7 +8799,7 @@
         <v>12.6905</v>
       </c>
       <c r="E246" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -8827,7 +8835,7 @@
         <v>7.7203</v>
       </c>
       <c r="E247" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -8859,7 +8867,7 @@
         <v>5.2433</v>
       </c>
       <c r="E248" t="n">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -8891,7 +8899,7 @@
         <v>5.2433</v>
       </c>
       <c r="E249" t="n">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -8923,7 +8931,7 @@
         <v>7.0628</v>
       </c>
       <c r="E250" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -8959,7 +8967,7 @@
         <v>6.8673</v>
       </c>
       <c r="E251" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -8995,7 +9003,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -9031,7 +9039,7 @@
         <v>7.5239</v>
       </c>
       <c r="E253" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9063,7 +9071,7 @@
         <v>4.7202</v>
       </c>
       <c r="E254" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -9095,7 +9103,7 @@
         <v>4.7202</v>
       </c>
       <c r="E255" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9127,7 +9135,7 @@
         <v>4.7202</v>
       </c>
       <c r="E256" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -9159,7 +9167,7 @@
         <v>4.7202</v>
       </c>
       <c r="E257" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9191,7 +9199,7 @@
         <v>12.6905</v>
       </c>
       <c r="E258" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -9227,7 +9235,7 @@
         <v>7.7203</v>
       </c>
       <c r="E259" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -9259,7 +9267,7 @@
         <v>4.7202</v>
       </c>
       <c r="E260" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9291,7 +9299,7 @@
         <v>4.7202</v>
       </c>
       <c r="E261" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9323,7 +9331,7 @@
         <v>7.0628</v>
       </c>
       <c r="E262" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -9359,7 +9367,7 @@
         <v>6.8673</v>
       </c>
       <c r="E263" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -9395,7 +9403,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E264" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -9431,7 +9439,7 @@
         <v>7.5239</v>
       </c>
       <c r="E265" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -9463,7 +9471,7 @@
         <v>4.7202</v>
       </c>
       <c r="E266" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -9495,7 +9503,7 @@
         <v>4.7202</v>
       </c>
       <c r="E267" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -9527,7 +9535,7 @@
         <v>4.7202</v>
       </c>
       <c r="E268" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -9559,7 +9567,7 @@
         <v>4.7202</v>
       </c>
       <c r="E269" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -9591,7 +9599,7 @@
         <v>12.6905</v>
       </c>
       <c r="E270" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -9627,7 +9635,7 @@
         <v>7.7203</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -9659,7 +9667,7 @@
         <v>4.7202</v>
       </c>
       <c r="E272" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -9687,7 +9695,7 @@
         <v>4.7202</v>
       </c>
       <c r="E273" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -9719,7 +9727,7 @@
         <v>7.0628</v>
       </c>
       <c r="E274" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -9755,7 +9763,7 @@
         <v>6.8673</v>
       </c>
       <c r="E275" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -9791,7 +9799,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E276" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -9827,7 +9835,7 @@
         <v>7.5239</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -9859,7 +9867,7 @@
         <v>4.7202</v>
       </c>
       <c r="E278" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -9891,7 +9899,7 @@
         <v>4.7202</v>
       </c>
       <c r="E279" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -9923,7 +9931,7 @@
         <v>4.7202</v>
       </c>
       <c r="E280" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -9955,7 +9963,7 @@
         <v>4.7202</v>
       </c>
       <c r="E281" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -9987,7 +9995,7 @@
         <v>12.6905</v>
       </c>
       <c r="E282" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -10023,7 +10031,7 @@
         <v>7.7203</v>
       </c>
       <c r="E283" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -10055,7 +10063,7 @@
         <v>4.7202</v>
       </c>
       <c r="E284" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -10087,7 +10095,7 @@
         <v>4.7202</v>
       </c>
       <c r="E285" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -10119,7 +10127,7 @@
         <v>7.0628</v>
       </c>
       <c r="E286" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -10155,7 +10163,7 @@
         <v>6.8673</v>
       </c>
       <c r="E287" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -10191,7 +10199,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E288" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10227,7 +10235,7 @@
         <v>7.5239</v>
       </c>
       <c r="E289" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -10259,7 +10267,7 @@
         <v>4.7202</v>
       </c>
       <c r="E290" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -10291,7 +10299,7 @@
         <v>4.7202</v>
       </c>
       <c r="E291" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -10323,7 +10331,7 @@
         <v>4.7202</v>
       </c>
       <c r="E292" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -10355,7 +10363,7 @@
         <v>4.7202</v>
       </c>
       <c r="E293" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -10387,7 +10395,7 @@
         <v>12.6905</v>
       </c>
       <c r="E294" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -10423,7 +10431,7 @@
         <v>7.7203</v>
       </c>
       <c r="E295" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -10455,7 +10463,7 @@
         <v>4.7202</v>
       </c>
       <c r="E296" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -10483,7 +10491,7 @@
         <v>4.7202</v>
       </c>
       <c r="E297" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -10515,7 +10523,7 @@
         <v>7.0628</v>
       </c>
       <c r="E298" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -10551,7 +10559,7 @@
         <v>6.8673</v>
       </c>
       <c r="E299" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -10587,7 +10595,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -10623,7 +10631,7 @@
         <v>7.5239</v>
       </c>
       <c r="E301" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -10655,7 +10663,7 @@
         <v>4.7202</v>
       </c>
       <c r="E302" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -10687,7 +10695,7 @@
         <v>4.7202</v>
       </c>
       <c r="E303" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -10719,7 +10727,7 @@
         <v>4.7202</v>
       </c>
       <c r="E304" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -10751,7 +10759,7 @@
         <v>4.7202</v>
       </c>
       <c r="E305" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -10783,7 +10791,7 @@
         <v>12.6905</v>
       </c>
       <c r="E306" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -10819,7 +10827,7 @@
         <v>7.7203</v>
       </c>
       <c r="E307" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -10851,7 +10859,7 @@
         <v>4.7202</v>
       </c>
       <c r="E308" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -10883,7 +10891,7 @@
         <v>4.7202</v>
       </c>
       <c r="E309" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -10915,7 +10923,7 @@
         <v>7.0628</v>
       </c>
       <c r="E310" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -10951,7 +10959,7 @@
         <v>6.8673</v>
       </c>
       <c r="E311" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -10987,7 +10995,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -11023,7 +11031,7 @@
         <v>7.5239</v>
       </c>
       <c r="E313" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -11055,7 +11063,7 @@
         <v>4.7202</v>
       </c>
       <c r="E314" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -11087,7 +11095,7 @@
         <v>4.7202</v>
       </c>
       <c r="E315" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -11119,7 +11127,7 @@
         <v>4.7202</v>
       </c>
       <c r="E316" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -11151,7 +11159,7 @@
         <v>4.7202</v>
       </c>
       <c r="E317" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -11183,7 +11191,7 @@
         <v>12.6905</v>
       </c>
       <c r="E318" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -11219,7 +11227,7 @@
         <v>7.7203</v>
       </c>
       <c r="E319" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -11251,7 +11259,7 @@
         <v>4.7202</v>
       </c>
       <c r="E320" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -11283,7 +11291,7 @@
         <v>4.7202</v>
       </c>
       <c r="E321" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -11315,7 +11323,7 @@
         <v>7.0628</v>
       </c>
       <c r="E322" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -11351,7 +11359,7 @@
         <v>6.8673</v>
       </c>
       <c r="E323" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -11387,7 +11395,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E324" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -11423,7 +11431,7 @@
         <v>7.5239</v>
       </c>
       <c r="E325" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -11455,7 +11463,7 @@
         <v>4.7202</v>
       </c>
       <c r="E326" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -11487,7 +11495,7 @@
         <v>4.7202</v>
       </c>
       <c r="E327" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -11519,7 +11527,7 @@
         <v>4.7202</v>
       </c>
       <c r="E328" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -11551,7 +11559,7 @@
         <v>4.7202</v>
       </c>
       <c r="E329" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -11583,7 +11591,7 @@
         <v>12.6905</v>
       </c>
       <c r="E330" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -11619,7 +11627,7 @@
         <v>7.7203</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -11651,7 +11659,7 @@
         <v>4.7202</v>
       </c>
       <c r="E332" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -11683,7 +11691,7 @@
         <v>4.7202</v>
       </c>
       <c r="E333" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -11715,7 +11723,7 @@
         <v>7.0628</v>
       </c>
       <c r="E334" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -11751,7 +11759,7 @@
         <v>6.8673</v>
       </c>
       <c r="E335" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -11787,7 +11795,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E336" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -11823,7 +11831,7 @@
         <v>7.5239</v>
       </c>
       <c r="E337" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -11859,7 +11867,7 @@
         <v>5.929</v>
       </c>
       <c r="E338" t="n">
-        <v>0.3083</v>
+        <v>1</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -11891,7 +11899,7 @@
         <v>5.929</v>
       </c>
       <c r="E339" t="n">
-        <v>0.3083</v>
+        <v>1</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -11923,7 +11931,7 @@
         <v>5.929</v>
       </c>
       <c r="E340" t="n">
-        <v>0.3083</v>
+        <v>1</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -11955,7 +11963,7 @@
         <v>5.929</v>
       </c>
       <c r="E341" t="n">
-        <v>0.3083</v>
+        <v>1</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -11987,7 +11995,7 @@
         <v>12.6905</v>
       </c>
       <c r="E342" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -12023,7 +12031,7 @@
         <v>7.7203</v>
       </c>
       <c r="E343" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -12055,7 +12063,7 @@
         <v>5.929</v>
       </c>
       <c r="E344" t="n">
-        <v>0.3083</v>
+        <v>1</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -12087,7 +12095,7 @@
         <v>5.929</v>
       </c>
       <c r="E345" t="n">
-        <v>0.3083</v>
+        <v>1</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -12119,7 +12127,7 @@
         <v>7.0628</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -12155,7 +12163,7 @@
         <v>6.8673</v>
       </c>
       <c r="E347" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -12191,7 +12199,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E348" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -12227,7 +12235,7 @@
         <v>7.5239</v>
       </c>
       <c r="E349" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -12259,7 +12267,7 @@
         <v>4.7202</v>
       </c>
       <c r="E350" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -12291,7 +12299,7 @@
         <v>4.7202</v>
       </c>
       <c r="E351" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -12323,7 +12331,7 @@
         <v>4.7202</v>
       </c>
       <c r="E352" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -12355,7 +12363,7 @@
         <v>4.7202</v>
       </c>
       <c r="E353" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -12387,7 +12395,7 @@
         <v>12.6905</v>
       </c>
       <c r="E354" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -12423,7 +12431,7 @@
         <v>7.7203</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -12455,7 +12463,7 @@
         <v>4.7202</v>
       </c>
       <c r="E356" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -12483,7 +12491,7 @@
         <v>4.7202</v>
       </c>
       <c r="E357" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -12515,7 +12523,7 @@
         <v>7.0628</v>
       </c>
       <c r="E358" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -12551,7 +12559,7 @@
         <v>6.8673</v>
       </c>
       <c r="E359" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -12587,7 +12595,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E360" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -12623,7 +12631,7 @@
         <v>7.5239</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -12655,7 +12663,7 @@
         <v>4.7202</v>
       </c>
       <c r="E362" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -12687,7 +12695,7 @@
         <v>4.7202</v>
       </c>
       <c r="E363" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -12719,7 +12727,7 @@
         <v>4.7202</v>
       </c>
       <c r="E364" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -12751,7 +12759,7 @@
         <v>4.7202</v>
       </c>
       <c r="E365" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -12783,7 +12791,7 @@
         <v>12.6905</v>
       </c>
       <c r="E366" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -12819,7 +12827,7 @@
         <v>7.7203</v>
       </c>
       <c r="E367" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -12851,7 +12859,7 @@
         <v>4.7202</v>
       </c>
       <c r="E368" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -12879,7 +12887,7 @@
         <v>4.7202</v>
       </c>
       <c r="E369" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -12911,7 +12919,7 @@
         <v>7.0628</v>
       </c>
       <c r="E370" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -12947,7 +12955,7 @@
         <v>6.8673</v>
       </c>
       <c r="E371" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -12983,7 +12991,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -13019,7 +13027,7 @@
         <v>7.5239</v>
       </c>
       <c r="E373" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -13051,7 +13059,7 @@
         <v>4.7202</v>
       </c>
       <c r="E374" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -13079,7 +13087,7 @@
         <v>4.7202</v>
       </c>
       <c r="E375" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -13111,7 +13119,7 @@
         <v>4.7202</v>
       </c>
       <c r="E376" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -13143,7 +13151,7 @@
         <v>4.7202</v>
       </c>
       <c r="E377" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -13175,7 +13183,7 @@
         <v>12.6905</v>
       </c>
       <c r="E378" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -13211,7 +13219,7 @@
         <v>7.7203</v>
       </c>
       <c r="E379" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -13238,16 +13246,12 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C380" t="inlineStr"/>
       <c r="D380" t="n">
         <v>4.7202</v>
       </c>
       <c r="E380" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -13256,7 +13260,7 @@
       </c>
       <c r="G380" t="inlineStr"/>
       <c r="H380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -13275,7 +13279,7 @@
         <v>4.7202</v>
       </c>
       <c r="E381" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -13307,7 +13311,7 @@
         <v>7.0628</v>
       </c>
       <c r="E382" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -13343,7 +13347,7 @@
         <v>6.8673</v>
       </c>
       <c r="E383" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -13379,7 +13383,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E384" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -13415,7 +13419,7 @@
         <v>7.5239</v>
       </c>
       <c r="E385" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -13447,7 +13451,7 @@
         <v>4.7202</v>
       </c>
       <c r="E386" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -13475,7 +13479,7 @@
         <v>4.7202</v>
       </c>
       <c r="E387" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -13507,7 +13511,7 @@
         <v>4.7202</v>
       </c>
       <c r="E388" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -13539,7 +13543,7 @@
         <v>4.7202</v>
       </c>
       <c r="E389" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -13571,7 +13575,7 @@
         <v>12.6905</v>
       </c>
       <c r="E390" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -13607,7 +13611,7 @@
         <v>7.7203</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -13639,7 +13643,7 @@
         <v>4.7202</v>
       </c>
       <c r="E392" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -13667,7 +13671,7 @@
         <v>4.7202</v>
       </c>
       <c r="E393" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -13699,7 +13703,7 @@
         <v>7.0628</v>
       </c>
       <c r="E394" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -13735,7 +13739,7 @@
         <v>6.8673</v>
       </c>
       <c r="E395" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -13771,7 +13775,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E396" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -13807,7 +13811,7 @@
         <v>7.5239</v>
       </c>
       <c r="E397" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -13839,7 +13843,7 @@
         <v>4.7202</v>
       </c>
       <c r="E398" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -13871,7 +13875,7 @@
         <v>4.7202</v>
       </c>
       <c r="E399" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -13903,7 +13907,7 @@
         <v>4.7202</v>
       </c>
       <c r="E400" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -13935,7 +13939,7 @@
         <v>4.7202</v>
       </c>
       <c r="E401" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -13967,7 +13971,7 @@
         <v>12.6905</v>
       </c>
       <c r="E402" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -14003,7 +14007,7 @@
         <v>7.7203</v>
       </c>
       <c r="E403" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -14035,7 +14039,7 @@
         <v>4.7202</v>
       </c>
       <c r="E404" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -14063,7 +14067,7 @@
         <v>4.7202</v>
       </c>
       <c r="E405" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -14095,7 +14099,7 @@
         <v>7.0628</v>
       </c>
       <c r="E406" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -14131,7 +14135,7 @@
         <v>6.8673</v>
       </c>
       <c r="E407" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -14167,7 +14171,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E408" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -14203,7 +14207,7 @@
         <v>7.5239</v>
       </c>
       <c r="E409" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -14235,7 +14239,7 @@
         <v>4.7202</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -14267,7 +14271,7 @@
         <v>4.7202</v>
       </c>
       <c r="E411" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -14299,7 +14303,7 @@
         <v>4.7202</v>
       </c>
       <c r="E412" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -14331,7 +14335,7 @@
         <v>4.7202</v>
       </c>
       <c r="E413" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -14363,7 +14367,7 @@
         <v>12.6905</v>
       </c>
       <c r="E414" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -14399,7 +14403,7 @@
         <v>7.7203</v>
       </c>
       <c r="E415" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -14431,7 +14435,7 @@
         <v>4.7202</v>
       </c>
       <c r="E416" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -14463,7 +14467,7 @@
         <v>4.7202</v>
       </c>
       <c r="E417" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -14495,7 +14499,7 @@
         <v>7.0628</v>
       </c>
       <c r="E418" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -14531,7 +14535,7 @@
         <v>6.8673</v>
       </c>
       <c r="E419" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -14567,7 +14571,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E420" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -14603,7 +14607,7 @@
         <v>7.5239</v>
       </c>
       <c r="E421" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -14635,7 +14639,7 @@
         <v>4.7202</v>
       </c>
       <c r="E422" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -14667,7 +14671,7 @@
         <v>4.7202</v>
       </c>
       <c r="E423" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -14699,7 +14703,7 @@
         <v>4.7202</v>
       </c>
       <c r="E424" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -14731,7 +14735,7 @@
         <v>4.7202</v>
       </c>
       <c r="E425" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -14763,7 +14767,7 @@
         <v>12.6905</v>
       </c>
       <c r="E426" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -14799,7 +14803,7 @@
         <v>7.7203</v>
       </c>
       <c r="E427" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -14831,7 +14835,7 @@
         <v>4.7202</v>
       </c>
       <c r="E428" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -14863,7 +14867,7 @@
         <v>4.7202</v>
       </c>
       <c r="E429" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -14895,7 +14899,7 @@
         <v>7.0628</v>
       </c>
       <c r="E430" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -14931,7 +14935,7 @@
         <v>6.8673</v>
       </c>
       <c r="E431" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -14967,7 +14971,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E432" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -15003,7 +15007,7 @@
         <v>7.5239</v>
       </c>
       <c r="E433" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -15039,7 +15043,7 @@
         <v>4.7202</v>
       </c>
       <c r="E434" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -15071,7 +15075,7 @@
         <v>4.7202</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -15103,7 +15107,7 @@
         <v>4.7202</v>
       </c>
       <c r="E436" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -15135,7 +15139,7 @@
         <v>4.7202</v>
       </c>
       <c r="E437" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -15167,7 +15171,7 @@
         <v>12.6905</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -15203,7 +15207,7 @@
         <v>7.7203</v>
       </c>
       <c r="E439" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -15235,7 +15239,7 @@
         <v>4.7202</v>
       </c>
       <c r="E440" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -15263,7 +15267,7 @@
         <v>4.7202</v>
       </c>
       <c r="E441" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -15295,7 +15299,7 @@
         <v>7.0628</v>
       </c>
       <c r="E442" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -15331,7 +15335,7 @@
         <v>6.8673</v>
       </c>
       <c r="E443" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -15367,7 +15371,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E444" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -15403,7 +15407,7 @@
         <v>7.5239</v>
       </c>
       <c r="E445" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -15435,7 +15439,7 @@
         <v>4.7202</v>
       </c>
       <c r="E446" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -15467,7 +15471,7 @@
         <v>4.7202</v>
       </c>
       <c r="E447" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -15499,7 +15503,7 @@
         <v>4.7202</v>
       </c>
       <c r="E448" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -15531,7 +15535,7 @@
         <v>4.7202</v>
       </c>
       <c r="E449" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -15563,7 +15567,7 @@
         <v>12.6905</v>
       </c>
       <c r="E450" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -15599,7 +15603,7 @@
         <v>7.7203</v>
       </c>
       <c r="E451" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -15631,7 +15635,7 @@
         <v>4.7202</v>
       </c>
       <c r="E452" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -15663,7 +15667,7 @@
         <v>4.7202</v>
       </c>
       <c r="E453" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -15695,7 +15699,7 @@
         <v>7.0628</v>
       </c>
       <c r="E454" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -15731,7 +15735,7 @@
         <v>6.8673</v>
       </c>
       <c r="E455" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -15767,7 +15771,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E456" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -15803,7 +15807,7 @@
         <v>7.5239</v>
       </c>
       <c r="E457" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -15835,7 +15839,7 @@
         <v>4.7202</v>
       </c>
       <c r="E458" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -15858,16 +15862,12 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="n">
         <v>4.7202</v>
       </c>
       <c r="E459" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -15899,7 +15899,7 @@
         <v>4.7202</v>
       </c>
       <c r="E460" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>4.7202</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>12.6905</v>
       </c>
       <c r="E462" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>7.7203</v>
       </c>
       <c r="E463" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>4.7202</v>
       </c>
       <c r="E464" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>4.7202</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>7.0628</v>
       </c>
       <c r="E466" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>6.8673</v>
       </c>
       <c r="E467" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E468" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>7.5239</v>
       </c>
       <c r="E469" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>4.7202</v>
       </c>
       <c r="E470" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>4.7202</v>
       </c>
       <c r="E471" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>4.7202</v>
       </c>
       <c r="E472" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>4.7202</v>
       </c>
       <c r="E473" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>12.6905</v>
       </c>
       <c r="E474" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>7.7203</v>
       </c>
       <c r="E475" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>4.7202</v>
       </c>
       <c r="E476" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>4.7202</v>
       </c>
       <c r="E477" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>7.0628</v>
       </c>
       <c r="E478" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>6.8673</v>
       </c>
       <c r="E479" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E480" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>7.5239</v>
       </c>
       <c r="E481" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>4.7202</v>
       </c>
       <c r="E482" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>4.7202</v>
       </c>
       <c r="E483" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>4.7202</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>4.7202</v>
       </c>
       <c r="E485" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>12.6905</v>
       </c>
       <c r="E486" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>7.7203</v>
       </c>
       <c r="E487" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>4.7202</v>
       </c>
       <c r="E488" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>4.7202</v>
       </c>
       <c r="E489" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>7.0628</v>
       </c>
       <c r="E490" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>6.8673</v>
       </c>
       <c r="E491" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E492" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>7.5239</v>
       </c>
       <c r="E493" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>4.7202</v>
       </c>
       <c r="E494" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>4.7202</v>
       </c>
       <c r="E495" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>4.7202</v>
       </c>
       <c r="E496" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>4.7202</v>
       </c>
       <c r="E497" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>12.6905</v>
       </c>
       <c r="E498" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>7.7203</v>
       </c>
       <c r="E499" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>4.7202</v>
       </c>
       <c r="E500" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>4.7202</v>
       </c>
       <c r="E501" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>7.0628</v>
       </c>
       <c r="E502" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>6.8673</v>
       </c>
       <c r="E503" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E504" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>7.5239</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>5.5375</v>
       </c>
       <c r="E506" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>5.5375</v>
       </c>
       <c r="E507" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>5.5375</v>
       </c>
       <c r="E508" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>5.5375</v>
       </c>
       <c r="E509" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>12.6905</v>
       </c>
       <c r="E510" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>7.7203</v>
       </c>
       <c r="E511" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -17626,12 +17626,16 @@
           <t>['24.其他费：', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr"/>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D512" t="n">
         <v>5.5375</v>
       </c>
       <c r="E512" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -17640,7 +17644,7 @@
       </c>
       <c r="G512" t="inlineStr"/>
       <c r="H512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -17663,7 +17667,7 @@
         <v>5.5375</v>
       </c>
       <c r="E513" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -17695,7 +17699,7 @@
         <v>7.0628</v>
       </c>
       <c r="E514" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -17731,7 +17735,7 @@
         <v>6.8673</v>
       </c>
       <c r="E515" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -17767,7 +17771,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E516" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -17803,7 +17807,7 @@
         <v>7.5239</v>
       </c>
       <c r="E517" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -17835,7 +17839,7 @@
         <v>4.7202</v>
       </c>
       <c r="E518" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -17867,7 +17871,7 @@
         <v>4.7202</v>
       </c>
       <c r="E519" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -17899,7 +17903,7 @@
         <v>4.7202</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -17931,7 +17935,7 @@
         <v>4.7202</v>
       </c>
       <c r="E521" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -17963,7 +17967,7 @@
         <v>12.6905</v>
       </c>
       <c r="E522" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -17999,7 +18003,7 @@
         <v>7.7203</v>
       </c>
       <c r="E523" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -18031,7 +18035,7 @@
         <v>4.7202</v>
       </c>
       <c r="E524" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -18059,7 +18063,7 @@
         <v>4.7202</v>
       </c>
       <c r="E525" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -18091,7 +18095,7 @@
         <v>7.0628</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -18127,7 +18131,7 @@
         <v>6.8673</v>
       </c>
       <c r="E527" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -18163,7 +18167,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E528" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
@@ -18199,7 +18203,7 @@
         <v>7.5239</v>
       </c>
       <c r="E529" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -18235,7 +18239,7 @@
         <v>4.7202</v>
       </c>
       <c r="E530" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -18267,7 +18271,7 @@
         <v>4.7202</v>
       </c>
       <c r="E531" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -18299,7 +18303,7 @@
         <v>4.7202</v>
       </c>
       <c r="E532" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -18331,7 +18335,7 @@
         <v>4.7202</v>
       </c>
       <c r="E533" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -18363,7 +18367,7 @@
         <v>12.6905</v>
       </c>
       <c r="E534" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -18399,7 +18403,7 @@
         <v>7.7203</v>
       </c>
       <c r="E535" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -18431,7 +18435,7 @@
         <v>4.7202</v>
       </c>
       <c r="E536" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -18463,7 +18467,7 @@
         <v>4.7202</v>
       </c>
       <c r="E537" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -18495,7 +18499,7 @@
         <v>7.0628</v>
       </c>
       <c r="E538" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -18531,7 +18535,7 @@
         <v>6.8673</v>
       </c>
       <c r="E539" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -18567,7 +18571,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E540" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -18603,7 +18607,7 @@
         <v>7.5239</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -18635,7 +18639,7 @@
         <v>4.7202</v>
       </c>
       <c r="E542" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -18667,7 +18671,7 @@
         <v>4.7202</v>
       </c>
       <c r="E543" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
@@ -18699,7 +18703,7 @@
         <v>4.7202</v>
       </c>
       <c r="E544" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -18731,7 +18735,7 @@
         <v>4.7202</v>
       </c>
       <c r="E545" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -18763,7 +18767,7 @@
         <v>12.6905</v>
       </c>
       <c r="E546" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -18799,7 +18803,7 @@
         <v>7.7203</v>
       </c>
       <c r="E547" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -18831,7 +18835,7 @@
         <v>4.7202</v>
       </c>
       <c r="E548" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -18854,16 +18858,12 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C549" t="inlineStr"/>
       <c r="D549" t="n">
         <v>4.7202</v>
       </c>
       <c r="E549" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -18895,7 +18895,7 @@
         <v>7.0628</v>
       </c>
       <c r="E550" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>6.8673</v>
       </c>
       <c r="E551" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E552" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>7.5239</v>
       </c>
       <c r="E553" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>4.7202</v>
       </c>
       <c r="E554" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>4.7202</v>
       </c>
       <c r="E555" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>4.7202</v>
       </c>
       <c r="E556" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>4.7202</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>12.6905</v>
       </c>
       <c r="E558" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>7.7203</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>4.7202</v>
       </c>
       <c r="E560" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -19258,12 +19258,16 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C561" t="inlineStr"/>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D561" t="n">
         <v>4.7202</v>
       </c>
       <c r="E561" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -19272,7 +19276,7 @@
       </c>
       <c r="G561" t="inlineStr"/>
       <c r="H561" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -19295,7 +19299,7 @@
         <v>7.0628</v>
       </c>
       <c r="E562" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -19331,7 +19335,7 @@
         <v>6.8673</v>
       </c>
       <c r="E563" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -19367,7 +19371,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E564" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -19403,7 +19407,7 @@
         <v>7.5239</v>
       </c>
       <c r="E565" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -19439,7 +19443,7 @@
         <v>4.7202</v>
       </c>
       <c r="E566" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -19471,7 +19475,7 @@
         <v>4.7202</v>
       </c>
       <c r="E567" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -19503,7 +19507,7 @@
         <v>4.7202</v>
       </c>
       <c r="E568" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -19535,7 +19539,7 @@
         <v>4.7202</v>
       </c>
       <c r="E569" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -19567,7 +19571,7 @@
         <v>12.6905</v>
       </c>
       <c r="E570" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -19603,7 +19607,7 @@
         <v>7.7203</v>
       </c>
       <c r="E571" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -19635,7 +19639,7 @@
         <v>4.7202</v>
       </c>
       <c r="E572" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -19667,7 +19671,7 @@
         <v>4.7202</v>
       </c>
       <c r="E573" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -19699,7 +19703,7 @@
         <v>7.0628</v>
       </c>
       <c r="E574" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -19735,7 +19739,7 @@
         <v>6.8673</v>
       </c>
       <c r="E575" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -19771,7 +19775,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E576" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -19807,7 +19811,7 @@
         <v>7.5239</v>
       </c>
       <c r="E577" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -19839,7 +19843,7 @@
         <v>4.7202</v>
       </c>
       <c r="E578" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -19871,7 +19875,7 @@
         <v>4.7202</v>
       </c>
       <c r="E579" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -19903,7 +19907,7 @@
         <v>4.7202</v>
       </c>
       <c r="E580" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -19935,7 +19939,7 @@
         <v>4.7202</v>
       </c>
       <c r="E581" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F581" t="inlineStr">
         <is>
@@ -19967,7 +19971,7 @@
         <v>12.6905</v>
       </c>
       <c r="E582" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F582" t="inlineStr">
         <is>
@@ -20003,7 +20007,7 @@
         <v>7.7203</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -20035,7 +20039,7 @@
         <v>4.7202</v>
       </c>
       <c r="E584" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -20067,7 +20071,7 @@
         <v>4.7202</v>
       </c>
       <c r="E585" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -20099,7 +20103,7 @@
         <v>7.0628</v>
       </c>
       <c r="E586" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -20135,7 +20139,7 @@
         <v>6.8673</v>
       </c>
       <c r="E587" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -20171,7 +20175,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E588" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -20207,7 +20211,7 @@
         <v>7.5239</v>
       </c>
       <c r="E589" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -20239,7 +20243,7 @@
         <v>4.7202</v>
       </c>
       <c r="E590" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -20271,7 +20275,7 @@
         <v>4.7202</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
@@ -20303,7 +20307,7 @@
         <v>4.7202</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -20335,7 +20339,7 @@
         <v>4.7202</v>
       </c>
       <c r="E593" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -20367,7 +20371,7 @@
         <v>12.6905</v>
       </c>
       <c r="E594" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -20403,7 +20407,7 @@
         <v>7.7203</v>
       </c>
       <c r="E595" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -20435,7 +20439,7 @@
         <v>4.7202</v>
       </c>
       <c r="E596" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -20467,7 +20471,7 @@
         <v>4.7202</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -20499,7 +20503,7 @@
         <v>7.0628</v>
       </c>
       <c r="E598" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -20535,7 +20539,7 @@
         <v>6.8673</v>
       </c>
       <c r="E599" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -20571,7 +20575,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E600" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
@@ -20607,7 +20611,7 @@
         <v>7.5239</v>
       </c>
       <c r="E601" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -20639,7 +20643,7 @@
         <v>4.7202</v>
       </c>
       <c r="E602" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -20671,7 +20675,7 @@
         <v>4.7202</v>
       </c>
       <c r="E603" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -20703,7 +20707,7 @@
         <v>4.7202</v>
       </c>
       <c r="E604" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -20735,7 +20739,7 @@
         <v>4.7202</v>
       </c>
       <c r="E605" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -20767,7 +20771,7 @@
         <v>12.6905</v>
       </c>
       <c r="E606" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F606" t="inlineStr">
         <is>
@@ -20803,7 +20807,7 @@
         <v>7.7203</v>
       </c>
       <c r="E607" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -20835,7 +20839,7 @@
         <v>4.7202</v>
       </c>
       <c r="E608" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
@@ -20858,16 +20862,12 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C609" t="inlineStr"/>
       <c r="D609" t="n">
         <v>4.7202</v>
       </c>
       <c r="E609" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
       </c>
       <c r="G609" t="inlineStr"/>
       <c r="H609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -20899,7 +20899,7 @@
         <v>7.0628</v>
       </c>
       <c r="E610" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>6.8673</v>
       </c>
       <c r="E611" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E612" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>7.5239</v>
       </c>
       <c r="E613" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>4.7202</v>
       </c>
       <c r="E614" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -21062,16 +21062,12 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C615" t="inlineStr"/>
       <c r="D615" t="n">
         <v>4.7202</v>
       </c>
       <c r="E615" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
@@ -21080,7 +21076,7 @@
       </c>
       <c r="G615" t="inlineStr"/>
       <c r="H615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -21103,7 +21099,7 @@
         <v>4.7202</v>
       </c>
       <c r="E616" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -21135,7 +21131,7 @@
         <v>4.7202</v>
       </c>
       <c r="E617" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
@@ -21167,7 +21163,7 @@
         <v>12.6905</v>
       </c>
       <c r="E618" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -21203,7 +21199,7 @@
         <v>7.7203</v>
       </c>
       <c r="E619" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -21235,7 +21231,7 @@
         <v>4.7202</v>
       </c>
       <c r="E620" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
@@ -21263,7 +21259,7 @@
         <v>4.7202</v>
       </c>
       <c r="E621" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
@@ -21295,7 +21291,7 @@
         <v>7.0628</v>
       </c>
       <c r="E622" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -21331,7 +21327,7 @@
         <v>6.8673</v>
       </c>
       <c r="E623" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F623" t="inlineStr">
         <is>
@@ -21367,7 +21363,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E624" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F624" t="inlineStr">
         <is>
@@ -21403,7 +21399,7 @@
         <v>7.5239</v>
       </c>
       <c r="E625" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F625" t="inlineStr">
         <is>
@@ -21435,7 +21431,7 @@
         <v>4.7202</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -21467,7 +21463,7 @@
         <v>4.7202</v>
       </c>
       <c r="E627" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -21499,7 +21495,7 @@
         <v>4.7202</v>
       </c>
       <c r="E628" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F628" t="inlineStr">
         <is>
@@ -21531,7 +21527,7 @@
         <v>4.7202</v>
       </c>
       <c r="E629" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -21563,7 +21559,7 @@
         <v>12.6905</v>
       </c>
       <c r="E630" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F630" t="inlineStr">
         <is>
@@ -21599,7 +21595,7 @@
         <v>7.7203</v>
       </c>
       <c r="E631" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F631" t="inlineStr">
         <is>
@@ -21631,7 +21627,7 @@
         <v>4.7202</v>
       </c>
       <c r="E632" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F632" t="inlineStr">
         <is>
@@ -21659,7 +21655,7 @@
         <v>4.7202</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -21691,7 +21687,7 @@
         <v>7.0628</v>
       </c>
       <c r="E634" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F634" t="inlineStr">
         <is>
@@ -21727,7 +21723,7 @@
         <v>6.8673</v>
       </c>
       <c r="E635" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
@@ -21763,7 +21759,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E636" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
@@ -21799,7 +21795,7 @@
         <v>7.5239</v>
       </c>
       <c r="E637" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -21831,7 +21827,7 @@
         <v>4.7202</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F638" t="inlineStr">
         <is>
@@ -21863,7 +21859,7 @@
         <v>4.7202</v>
       </c>
       <c r="E639" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -21895,7 +21891,7 @@
         <v>4.7202</v>
       </c>
       <c r="E640" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F640" t="inlineStr">
         <is>
@@ -21927,7 +21923,7 @@
         <v>4.7202</v>
       </c>
       <c r="E641" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -21959,7 +21955,7 @@
         <v>12.6905</v>
       </c>
       <c r="E642" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F642" t="inlineStr">
         <is>
@@ -21995,7 +21991,7 @@
         <v>7.7203</v>
       </c>
       <c r="E643" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F643" t="inlineStr">
         <is>
@@ -22027,7 +22023,7 @@
         <v>4.7202</v>
       </c>
       <c r="E644" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -22059,7 +22055,7 @@
         <v>4.7202</v>
       </c>
       <c r="E645" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F645" t="inlineStr">
         <is>
@@ -22091,7 +22087,7 @@
         <v>7.0628</v>
       </c>
       <c r="E646" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F646" t="inlineStr">
         <is>
@@ -22127,7 +22123,7 @@
         <v>6.8673</v>
       </c>
       <c r="E647" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F647" t="inlineStr">
         <is>
@@ -22163,7 +22159,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E648" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F648" t="inlineStr">
         <is>
@@ -22199,7 +22195,7 @@
         <v>7.5239</v>
       </c>
       <c r="E649" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -22231,7 +22227,7 @@
         <v>4.7202</v>
       </c>
       <c r="E650" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F650" t="inlineStr">
         <is>
@@ -22263,7 +22259,7 @@
         <v>4.7202</v>
       </c>
       <c r="E651" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F651" t="inlineStr">
         <is>
@@ -22295,7 +22291,7 @@
         <v>4.7202</v>
       </c>
       <c r="E652" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -22327,7 +22323,7 @@
         <v>4.7202</v>
       </c>
       <c r="E653" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F653" t="inlineStr">
         <is>
@@ -22359,7 +22355,7 @@
         <v>12.6905</v>
       </c>
       <c r="E654" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -22395,7 +22391,7 @@
         <v>7.7203</v>
       </c>
       <c r="E655" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F655" t="inlineStr">
         <is>
@@ -22427,7 +22423,7 @@
         <v>4.7202</v>
       </c>
       <c r="E656" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F656" t="inlineStr">
         <is>
@@ -22455,7 +22451,7 @@
         <v>4.7202</v>
       </c>
       <c r="E657" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -22487,7 +22483,7 @@
         <v>7.0628</v>
       </c>
       <c r="E658" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F658" t="inlineStr">
         <is>
@@ -22523,7 +22519,7 @@
         <v>6.8673</v>
       </c>
       <c r="E659" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -22559,7 +22555,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E660" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F660" t="inlineStr">
         <is>
@@ -22595,7 +22591,7 @@
         <v>7.5239</v>
       </c>
       <c r="E661" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F661" t="inlineStr">
         <is>
@@ -22627,7 +22623,7 @@
         <v>4.7202</v>
       </c>
       <c r="E662" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F662" t="inlineStr">
         <is>
@@ -22659,7 +22655,7 @@
         <v>4.7202</v>
       </c>
       <c r="E663" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F663" t="inlineStr">
         <is>
@@ -22691,7 +22687,7 @@
         <v>4.7202</v>
       </c>
       <c r="E664" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F664" t="inlineStr">
         <is>
@@ -22723,7 +22719,7 @@
         <v>4.7202</v>
       </c>
       <c r="E665" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -22755,7 +22751,7 @@
         <v>12.6905</v>
       </c>
       <c r="E666" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -22791,7 +22787,7 @@
         <v>7.7203</v>
       </c>
       <c r="E667" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -22823,7 +22819,7 @@
         <v>4.7202</v>
       </c>
       <c r="E668" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F668" t="inlineStr">
         <is>
@@ -22851,7 +22847,7 @@
         <v>4.7202</v>
       </c>
       <c r="E669" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -22883,7 +22879,7 @@
         <v>7.0628</v>
       </c>
       <c r="E670" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -22919,7 +22915,7 @@
         <v>6.8673</v>
       </c>
       <c r="E671" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F671" t="inlineStr">
         <is>
@@ -22955,7 +22951,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E672" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F672" t="inlineStr">
         <is>
@@ -22991,7 +22987,7 @@
         <v>7.5239</v>
       </c>
       <c r="E673" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -23023,7 +23019,7 @@
         <v>4.7202</v>
       </c>
       <c r="E674" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -23055,7 +23051,7 @@
         <v>4.7202</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F675" t="inlineStr">
         <is>
@@ -23087,7 +23083,7 @@
         <v>4.7202</v>
       </c>
       <c r="E676" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F676" t="inlineStr">
         <is>
@@ -23119,7 +23115,7 @@
         <v>4.7202</v>
       </c>
       <c r="E677" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -23151,7 +23147,7 @@
         <v>12.6905</v>
       </c>
       <c r="E678" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F678" t="inlineStr">
         <is>
@@ -23187,7 +23183,7 @@
         <v>7.7203</v>
       </c>
       <c r="E679" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -23219,7 +23215,7 @@
         <v>4.7202</v>
       </c>
       <c r="E680" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F680" t="inlineStr">
         <is>
@@ -23251,7 +23247,7 @@
         <v>4.0961</v>
       </c>
       <c r="E681" t="n">
-        <v>0.213</v>
+        <v>1</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -23283,7 +23279,7 @@
         <v>7.0628</v>
       </c>
       <c r="E682" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -23319,7 +23315,7 @@
         <v>6.8673</v>
       </c>
       <c r="E683" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F683" t="inlineStr">
         <is>
@@ -23355,7 +23351,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E684" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F684" t="inlineStr">
         <is>
@@ -23391,7 +23387,7 @@
         <v>7.5239</v>
       </c>
       <c r="E685" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
@@ -23423,7 +23419,7 @@
         <v>4.7202</v>
       </c>
       <c r="E686" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -23455,7 +23451,7 @@
         <v>4.7202</v>
       </c>
       <c r="E687" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F687" t="inlineStr">
         <is>
@@ -23487,7 +23483,7 @@
         <v>4.7202</v>
       </c>
       <c r="E688" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F688" t="inlineStr">
         <is>
@@ -23519,7 +23515,7 @@
         <v>4.7202</v>
       </c>
       <c r="E689" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
@@ -23551,7 +23547,7 @@
         <v>12.6905</v>
       </c>
       <c r="E690" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F690" t="inlineStr">
         <is>
@@ -23587,7 +23583,7 @@
         <v>7.7203</v>
       </c>
       <c r="E691" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -23619,7 +23615,7 @@
         <v>4.7202</v>
       </c>
       <c r="E692" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -23647,7 +23643,7 @@
         <v>4.7202</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F693" t="inlineStr">
         <is>
@@ -23679,7 +23675,7 @@
         <v>7.0628</v>
       </c>
       <c r="E694" t="n">
-        <v>0.3673</v>
+        <v>1</v>
       </c>
       <c r="F694" t="inlineStr">
         <is>
@@ -23715,7 +23711,7 @@
         <v>6.8673</v>
       </c>
       <c r="E695" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -23751,7 +23747,7 @@
         <v>8.501899999999999</v>
       </c>
       <c r="E696" t="n">
-        <v>0.4421</v>
+        <v>1</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -23787,7 +23783,7 @@
         <v>7.5239</v>
       </c>
       <c r="E697" t="n">
-        <v>0.3913</v>
+        <v>1</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -23819,7 +23815,7 @@
         <v>4.7202</v>
       </c>
       <c r="E698" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -23842,16 +23838,12 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C699" t="inlineStr"/>
       <c r="D699" t="n">
         <v>4.7202</v>
       </c>
       <c r="E699" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F699" t="inlineStr">
         <is>
@@ -23860,7 +23852,7 @@
       </c>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -23883,7 +23875,7 @@
         <v>4.7202</v>
       </c>
       <c r="E700" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -23915,7 +23907,7 @@
         <v>4.7202</v>
       </c>
       <c r="E701" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -23947,7 +23939,7 @@
         <v>12.6905</v>
       </c>
       <c r="E702" t="n">
-        <v>0.6599</v>
+        <v>1</v>
       </c>
       <c r="F702" t="inlineStr">
         <is>
@@ -23983,7 +23975,7 @@
         <v>7.7203</v>
       </c>
       <c r="E703" t="n">
-        <v>0.4015</v>
+        <v>1</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -24015,7 +24007,7 @@
         <v>4.7202</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
@@ -24043,7 +24035,7 @@
         <v>4.7202</v>
       </c>
       <c r="E705" t="n">
-        <v>0.2455</v>
+        <v>1</v>
       </c>
       <c r="F705" t="inlineStr">
         <is>
@@ -24075,7 +24067,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G706" t="inlineStr"/>
@@ -24103,7 +24095,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G707" t="inlineStr"/>
@@ -24131,7 +24123,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
@@ -24159,7 +24151,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G709" t="inlineStr"/>
@@ -24187,7 +24179,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G710" t="inlineStr"/>
@@ -24215,7 +24207,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G711" t="inlineStr"/>
@@ -24243,7 +24235,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G712" t="inlineStr"/>
@@ -24271,7 +24263,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G713" t="inlineStr"/>
@@ -24290,7 +24282,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>22.治疗用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D714" t="n">
         <v>0</v>
       </c>
@@ -24299,12 +24295,12 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -24327,7 +24323,7 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G715" t="inlineStr"/>
@@ -24351,7 +24347,7 @@
         <v>4.898</v>
       </c>
       <c r="E716" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -24379,7 +24375,7 @@
         <v>4.898</v>
       </c>
       <c r="E717" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -24407,7 +24403,7 @@
         <v>4.898</v>
       </c>
       <c r="E718" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -24435,7 +24431,7 @@
         <v>4.898</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -24463,7 +24459,7 @@
         <v>4.898</v>
       </c>
       <c r="E720" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -24491,7 +24487,7 @@
         <v>4.898</v>
       </c>
       <c r="E721" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -24519,7 +24515,7 @@
         <v>4.898</v>
       </c>
       <c r="E722" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -24551,7 +24547,7 @@
         <v>4.898</v>
       </c>
       <c r="E723" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
@@ -24583,7 +24579,7 @@
         <v>4.898</v>
       </c>
       <c r="E724" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -24615,7 +24611,7 @@
         <v>4.898</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -24643,7 +24639,7 @@
         <v>4.898</v>
       </c>
       <c r="E726" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -24671,7 +24667,7 @@
         <v>4.898</v>
       </c>
       <c r="E727" t="n">
-        <v>0.2547</v>
+        <v>1</v>
       </c>
       <c r="F727" t="inlineStr">
         <is>
@@ -24699,11 +24695,11 @@
         <v>3.2277</v>
       </c>
       <c r="E728" t="n">
-        <v>0.1678</v>
+        <v>1</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G728" t="inlineStr"/>
@@ -24731,7 +24727,7 @@
         <v>8.1578</v>
       </c>
       <c r="E729" t="n">
-        <v>0.4242</v>
+        <v>1</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -24767,7 +24763,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E730" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F730" t="inlineStr">
         <is>
@@ -24803,7 +24799,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E731" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
@@ -24839,7 +24835,7 @@
         <v>8.1578</v>
       </c>
       <c r="E732" t="n">
-        <v>0.4242</v>
+        <v>1</v>
       </c>
       <c r="F732" t="inlineStr">
         <is>
@@ -24875,7 +24871,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E733" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -24911,7 +24907,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E734" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -24947,7 +24943,7 @@
         <v>8.1578</v>
       </c>
       <c r="E735" t="n">
-        <v>0.4242</v>
+        <v>1</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -24983,7 +24979,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E736" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
@@ -25019,7 +25015,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E737" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F737" t="inlineStr">
         <is>
@@ -25055,7 +25051,7 @@
         <v>8.1578</v>
       </c>
       <c r="E738" t="n">
-        <v>0.4242</v>
+        <v>1</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -25091,7 +25087,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E739" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -25127,7 +25123,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -25163,7 +25159,7 @@
         <v>8.1578</v>
       </c>
       <c r="E741" t="n">
-        <v>0.4242</v>
+        <v>1</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -25199,7 +25195,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E742" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -25235,7 +25231,7 @@
         <v>8.373699999999999</v>
       </c>
       <c r="E743" t="n">
-        <v>0.4354</v>
+        <v>1</v>
       </c>
       <c r="F743" t="inlineStr">
         <is>
@@ -25271,7 +25267,7 @@
         <v>7.3612</v>
       </c>
       <c r="E744" t="n">
-        <v>0.3828</v>
+        <v>1</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -25307,7 +25303,7 @@
         <v>14.2017</v>
       </c>
       <c r="E745" t="n">
-        <v>0.7385</v>
+        <v>1</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -25343,7 +25339,7 @@
         <v>12.6069</v>
       </c>
       <c r="E746" t="n">
-        <v>0.6556</v>
+        <v>1</v>
       </c>
       <c r="F746" t="inlineStr">
         <is>
@@ -25379,7 +25375,7 @@
         <v>11.5897</v>
       </c>
       <c r="E747" t="n">
-        <v>0.6027</v>
+        <v>1</v>
       </c>
       <c r="F747" t="inlineStr">
         <is>
@@ -25415,7 +25411,7 @@
         <v>8.7913</v>
       </c>
       <c r="E748" t="n">
-        <v>0.4572</v>
+        <v>1</v>
       </c>
       <c r="F748" t="inlineStr">
         <is>
@@ -25451,7 +25447,7 @@
         <v>15.6464</v>
       </c>
       <c r="E749" t="n">
-        <v>0.8136</v>
+        <v>1</v>
       </c>
       <c r="F749" t="inlineStr">
         <is>
@@ -25487,7 +25483,7 @@
         <v>8.1378</v>
       </c>
       <c r="E750" t="n">
-        <v>0.4232</v>
+        <v>1</v>
       </c>
       <c r="F750" t="inlineStr">
         <is>
@@ -25523,7 +25519,7 @@
         <v>8.9749</v>
       </c>
       <c r="E751" t="n">
-        <v>0.4667</v>
+        <v>1</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -25559,7 +25555,7 @@
         <v>8.9749</v>
       </c>
       <c r="E752" t="n">
-        <v>0.4667</v>
+        <v>1</v>
       </c>
       <c r="F752" t="inlineStr">
         <is>
@@ -25595,7 +25591,7 @@
         <v>10.396</v>
       </c>
       <c r="E753" t="n">
-        <v>0.5406</v>
+        <v>1</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -25631,7 +25627,7 @@
         <v>10.875</v>
       </c>
       <c r="E754" t="n">
-        <v>0.5655</v>
+        <v>1</v>
       </c>
       <c r="F754" t="inlineStr">
         <is>
@@ -25667,7 +25663,7 @@
         <v>13.1563</v>
       </c>
       <c r="E755" t="n">
-        <v>0.6842</v>
+        <v>1</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -25703,7 +25699,7 @@
         <v>9.0809</v>
       </c>
       <c r="E756" t="n">
-        <v>0.4722</v>
+        <v>1</v>
       </c>
       <c r="F756" t="inlineStr">
         <is>
@@ -25739,7 +25735,7 @@
         <v>8.8535</v>
       </c>
       <c r="E757" t="n">
-        <v>0.4604</v>
+        <v>1</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -25775,7 +25771,7 @@
         <v>9.471</v>
       </c>
       <c r="E758" t="n">
-        <v>0.4925</v>
+        <v>1</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -25811,7 +25807,7 @@
         <v>8.799899999999999</v>
       </c>
       <c r="E759" t="n">
-        <v>0.4576</v>
+        <v>1</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -25847,7 +25843,7 @@
         <v>10.7155</v>
       </c>
       <c r="E760" t="n">
-        <v>0.5572</v>
+        <v>1</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -25883,7 +25879,7 @@
         <v>11.6413</v>
       </c>
       <c r="E761" t="n">
-        <v>0.6054</v>
+        <v>1</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -25919,7 +25915,7 @@
         <v>11.9253</v>
       </c>
       <c r="E762" t="n">
-        <v>0.6201</v>
+        <v>1</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -25955,7 +25951,7 @@
         <v>8.799899999999999</v>
       </c>
       <c r="E763" t="n">
-        <v>0.4576</v>
+        <v>1</v>
       </c>
       <c r="F763" t="inlineStr">
         <is>
@@ -25991,7 +25987,7 @@
         <v>8.799899999999999</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4576</v>
+        <v>1</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -26027,7 +26023,7 @@
         <v>8.7913</v>
       </c>
       <c r="E765" t="n">
-        <v>0.4572</v>
+        <v>1</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -26063,7 +26059,7 @@
         <v>11.3166</v>
       </c>
       <c r="E766" t="n">
-        <v>0.5885</v>
+        <v>1</v>
       </c>
       <c r="F766" t="inlineStr">
         <is>
@@ -26099,7 +26095,7 @@
         <v>11.3166</v>
       </c>
       <c r="E767" t="n">
-        <v>0.5885</v>
+        <v>1</v>
       </c>
       <c r="F767" t="inlineStr">
         <is>
@@ -26135,7 +26131,7 @@
         <v>11.3166</v>
       </c>
       <c r="E768" t="n">
-        <v>0.5885</v>
+        <v>1</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -26171,7 +26167,7 @@
         <v>11.3166</v>
       </c>
       <c r="E769" t="n">
-        <v>0.5885</v>
+        <v>1</v>
       </c>
       <c r="F769" t="inlineStr">
         <is>
@@ -26207,7 +26203,7 @@
         <v>14.6309</v>
       </c>
       <c r="E770" t="n">
-        <v>0.7608</v>
+        <v>1</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -26243,7 +26239,7 @@
         <v>14.2106</v>
       </c>
       <c r="E771" t="n">
-        <v>0.739</v>
+        <v>1</v>
       </c>
       <c r="F771" t="inlineStr">
         <is>
@@ -26279,7 +26275,7 @@
         <v>13.3907</v>
       </c>
       <c r="E772" t="n">
-        <v>0.6963</v>
+        <v>1</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
@@ -26315,7 +26311,7 @@
         <v>8.7736</v>
       </c>
       <c r="E773" t="n">
-        <v>0.4562</v>
+        <v>1</v>
       </c>
       <c r="F773" t="inlineStr">
         <is>
